--- a/results_cnn_subnetworks_evaluation/cnn_validation_SubRCM_plv_by_advanced_fm_linear_ratio_rcm.xlsx
+++ b/results_cnn_subnetworks_evaluation/cnn_validation_SubRCM_plv_by_advanced_fm_linear_ratio_rcm.xlsx
@@ -49,6 +49,27 @@
     <sheet name="rational_quadratic_sr_0.25" sheetId="40" state="visible" r:id="rId40"/>
     <sheet name="generalized_gaussian_sr_0.25" sheetId="41" state="visible" r:id="rId41"/>
     <sheet name="sigmoid_sr_0.25" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="exponential_sr_0.2" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="gaussian_sr_0.2" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="inverse_sr_0.2" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="powerlaw_sr_0.2" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="rational_quadratic_sr_0.2" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="generalized_gaussian_sr_0.2" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="sigmoid_sr_0.2" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="exponential_sr_0.15" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="gaussian_sr_0.15" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet name="inverse_sr_0.15" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet name="powerlaw_sr_0.15" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet name="rational_quadratic_sr_0.15" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet name="generalized_gaussian_sr_0.15" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet name="sigmoid_sr_0.15" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet name="exponential_sr_0.1" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet name="gaussian_sr_0.1" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet name="inverse_sr_0.1" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet name="powerlaw_sr_0.1" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet name="rational_quadratic_sr_0.1" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet name="generalized_gaussian_sr_0.1" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet name="sigmoid_sr_0.1" sheetId="63" state="visible" r:id="rId63"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13410,6 +13431,2456 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>74.38637012430902</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6306020447363456</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7438637012430903</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.744454443812238</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>62.42000363324943</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8311102089782556</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6242000363324942</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6062423236365765</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>76.10688673777454</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5972324468350659</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7610688673777455</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7575281575786172</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>84.37252917412781</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4108005588874221</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8437252917412781</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8390812145167732</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>82.94985250737463</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4860907278935581</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8294985250737463</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8199507653488676</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>88.64358688223948</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3049330298245574</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8864358688223947</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8852846410509756</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>74.66111298540645</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7820158484391868</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7466111298540645</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7326036362741564</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>80.70796460176992</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4804134404752404</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8070796460176991</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8049195395983408</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>81.18011401482713</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4869154797789331</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8118011401482711</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8060501373197724</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>82.68453879358819</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4682818542331612</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8268453879358818</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8285710003338513</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>78.79056047197641</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5905453911827256</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.787905604719764</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7870074979599339</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>73.98645317001012</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5863430256644885</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7398645317001012</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7338167666791173</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>93.77581120943952</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1927280543461772</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9377581120943953</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9373487082924601</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>96.72566371681417</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.09869864512535667</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9672566371681416</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9672725475396247</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>96.72670178807775</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1161775653442116</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9672670178807776</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9669712694162216</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>81.87454332073229</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4708592214496457</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8187454332073228</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8144735099571684</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>88.96755162241888</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2944847418063242</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8896755162241888</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8885926148808784</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>83.32944056609486</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4848088101260752</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8332944056609486</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8216681289207411</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>92.3905916141143</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2355536416269994</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9239059161411431</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.922227337567626</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>85.45722713864306</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.368572560173925</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8545722713864308</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8473984688357614</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>81.47544528931911</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4837429683868929</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8147544528931912</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8157179605327934</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>89.38053097345133</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3121961188163065</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8938053097345133</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8879842035464482</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>85.54572271386431</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4355638535887314</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.855457227138643</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8442064928548371</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>79.70164101765586</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6431709247524851</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7970164101765586</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7809674899400949</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>83.39354146662167</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5123793188948185</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8339354146662169</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8190132293528187</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>87.66961651917404</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3700748434717146</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8766961651917404</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.873668124429382</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>77.95378852758242</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7627663732040674</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7795378852758242</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7656580599061954</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>81.17994100294985</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6416236615002466</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8117994100294986</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7990482119008341</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>93.45132743362832</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1826356412003709</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9345132743362832</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9346485953889871</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>95.9887196256023</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1111435245338119</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9598871962560229</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9602747804177362</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.48082595870207</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2186533661185725</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9348082595870206</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9312800371924436</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>86.62439409798816</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4038246898800895</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8662439409798817</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8594902490445051</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>87.05083954013443</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3829304555023555</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8705083954013443</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8645260380688695</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>85.1752177787005</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3723753217646542</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8517521777870052</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8467441340522456</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>92.53687315634218</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2106804781287792</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9253687315634218</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9229999716746106</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>82.90054412235399</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4573475598047178</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8290054412235399</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8227449133165805</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>84.66076696165192</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3974809783612728</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8466076696165192</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.847050815692603</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>88.37792714469848</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3907572717764803</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8837792714469849</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8746295786393427</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>81.7405859912283</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6358097689769541</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.817405859912283</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8025112999727106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>85.10930025346241</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4235075890115695</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8510930025346241</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8445863590139137</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>82.41957110355625</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5044393406560024</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8241957110355627</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8106849608040237</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>90.00017301187727</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2633469936127464</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9000017301187727</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8988481217434323</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>84.92625368731564</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5689726875299432</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8492625368731563</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8441868358835738</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>79.21686173755828</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6153686782733228</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7921686173755829</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7773079245123536</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>92.65486725663717</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2330357193093126</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9265486725663716</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.926451927867137</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>96.04806269950431</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1243756971540279</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9604806269950432</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9604779322239928</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.39233038348083</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2104941325953405</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9339233038348083</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9289793859073961</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>87.08067832190012</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3860615114971653</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8708067832190013</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8648486799581857</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>89.88200589970502</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2873735652654432</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8988200589970502</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8965507979613534</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>87.43587747298852</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3815316911476354</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8743587747298852</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8664271004438457</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>93.89380530973452</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1757145311149846</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9389380530973451</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9385777294962852</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>85.5467607851279</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3926802520050842</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.855467607851279</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8505604698217756</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>83.39233038348083</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4301292177677776</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8339233038348082</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8336797344223588</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>86.4311975017085</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4198540850076825</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8643119750170849</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8631856254396194</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>87.82039637021082</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3524637079855893</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8782039637021082</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8745273256602829</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>87.80248964091385</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3198019166438219</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8780248964091385</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8787295096767561</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>82.59336153426933</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5538179345816995</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8259336153426933</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.813716694807759</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>89.35189750776391</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2739370416849852</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8935189750776391</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8923044844643929</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>82.44941565238454</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5845955785829574</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8244941565238454</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8209241810657619</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>83.27433628318583</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6154288091805938</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8327433628318583</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8160890959662016</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>96.34218289085545</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1297303060770598</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9634218289085545</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9634117032343354</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>96.78967811140235</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.09029705033475086</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9678967811140236</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9680750725112535</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.68731563421829</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2472694067080738</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9368731563421828</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9352358821974172</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>88.44620339852996</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.350308339605876</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8844620339852995</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8807996938112932</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>86.93595965363022</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3275476370336643</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8693595965363021</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8689068829413454</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>82.31126566838813</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4267052687083682</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8231126566838813</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8165401224905044</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>89.50094724002803</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2765100394511441</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8950094724002803</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8942930785002714</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>77.46831719997577</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5730210024863481</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7746831719997578</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7620894305833988</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>75.4348221005372</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6092186500589984</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.754348221005372</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7485953263193357</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>81.80131316014845</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4871746427069108</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8180131316014844</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8149788745632673</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>75.96181627868752</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6829918907800068</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7596181627868753</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.752090574388785</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>80.74178842377529</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5296226317683856</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.807417884237753</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7892549021698571</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>72.3431863597436</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7498471498955042</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7234318635974359</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7194907883337749</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>86.96424709556311</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3228383464350675</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8696424709556311</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8671803141535064</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>78.91547504736199</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.580766496558984</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.78915475047362</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7853473551646898</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>71.58297217103954</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7944516456297909</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7158297217103955</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6984946422430511</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>91.71091445427729</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2753030856566814</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9171091445427729</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9158059849011954</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>94.18879056047197</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1471553372135531</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9418879056047198</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9416697691839241</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>89.77629564269587</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2745719823030716</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8977629564269588</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8960390747949887</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>82.3758740704216</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4705150537790986</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.823758740704216</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8180518080487932</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>88.23008849557522</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3301227773772553</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8823008849557523</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.880161731060998</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>79.42032370522236</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6462564214016311</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7942032370522236</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7851736301651734</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>90.94395280235987</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2704820235803103</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9094395280235987</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9033285536479501</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>80.85563023901591</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5152590866821508</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8085563023901591</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7972489159036567</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>80.47855085251602</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.526964161900105</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8047855085251603</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8029899610776704</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>88.4957482331162</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3557247075572377</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.884957482331162</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8791179292916971</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>80.76886478256732</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5567851461741763</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8076886478256732</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7988212149430198</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>88.31858407079646</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3155535550681331</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8831858407079647</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8817983245495219</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>84.21828908554572</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4207013753630842</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8421828908554572</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8337372850676736</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>90.58997050147494</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2847205332965435</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9058997050147493</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8977940658051962</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>83.86430678466077</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5611397340893746</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8386430678466077</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8367798685292078</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>81.6821079767126</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5749377413342397</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.816821079767126</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8041931126456522</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>93.09734513274336</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2108880389675808</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9309734513274336</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9307013020700114</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>95.28040900007787</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1203398251686849</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9528040900007785</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9532707392688884</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>87.55343904359034</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.6373293527193407</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8755343904359034</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8587768682057172</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>86.25317404706499</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4218136320453232</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8625317404706501</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8562595668154689</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>89.91150442477877</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3041081697185291</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8991150442477875</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8968093837835296</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>80.41687211827092</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6861898133841653</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8041687211827092</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7895485735989658</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>93.80600178202232</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1817573067208286</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9380600178202233</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9375102952072751</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>84.49208038131817</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3969136124787231</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8449208038131818</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8378382064409189</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>74.819245841227</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7381198030653953</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.74819245841227</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7376372342492352</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>87.82333757212433</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3251316564933707</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8782333757212433</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8750420462242827</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>86.10619469026548</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4454997673325124</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8610619469026549</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8517693415766608</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>84.82210053720188</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4183712812179389</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8482210053720187</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8446541895660123</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>84.3952802359882</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4175392337997134</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.843952802359882</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8356513405990136</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>87.55283350201992</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3352868436292434</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8755283350201992</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8697622825107718</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>84.48377581120944</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5594894574062589</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8448377581120944</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8437118365881308</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>82.27138643067846</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6572018212211939</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8227138643067846</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8051682821933793</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>93.39233038348083</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2024378813783793</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9339233038348083</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9341080833022879</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>92.82260227164595</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2016119502804941</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9282260227164596</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9276826135856384</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>90.41297935103245</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3498744026078687</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9041297935103245</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8913442053535239</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>86.50190168888427</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4146355333823076</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8650190168888428</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8585491943186419</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -13753,6 +16224,3506 @@
       </c>
       <c r="E17" t="n">
         <v>0.8910748147989409</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>70.0352079170235</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7356416465093691</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7003520791702351</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6929366826584809</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>65.09277761918356</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7994497408469518</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6509277761918356</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6391578405543998</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>77.2595783700551</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5133266319831212</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.772595783700551</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7747924847954912</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>69.59255702904004</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7602279278139273</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6959255702904004</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6848591186465329</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>77.11433489909082</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6100979688344523</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7711433489909083</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7665446706965576</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>86.29149041081671</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3711244650185108</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.862914904108167</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8600573013926525</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>62.76896858969368</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9699258737266063</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6276896858969369</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6204969861452923</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>66.11458576631286</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8140774068733057</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6611458576631286</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6603402070486627</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>68.82879609685205</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7763516614834467</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6882879609685204</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6794839998661539</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>77.75897715378161</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5847422999950747</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7775897715378161</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7763955267949101</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>70.79066427910276</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.804263221193105</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7079066427910277</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6987539522282076</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>64.8849038486492</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8424064862852296</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6488490384864921</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6398441359382232</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>89.00102942066972</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2811565053765662</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8900102942066972</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8910015507925667</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>87.14020017474199</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3807787721122925</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.87140200174742</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8673623391290013</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>96.25662851754772</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1169912496068719</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9625662851754774</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9626731318038775</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>75.26204667283743</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6240374571772555</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7526204667283741</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7476466618994007</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>80.61964203842595</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5610570748802275</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8061964203842594</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8028198528726651</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>70.73132120520073</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7284375293180346</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7073132120520074</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6905190465611579</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>82.58436491665152</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4564424735959619</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8258436491665153</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8245204907870513</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>75.4086108011315</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5929008527348439</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7540861080113149</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7547143463047629</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>70.85606276870907</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8002075827447698</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7085606276870907</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7015910630640038</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>84.59701208487964</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3750038690244158</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8459701208487964</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8432145429301983</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>77.87714426595386</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5619944517190258</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7787714426595386</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7748448956050585</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>69.97655689063055</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7766589539746442</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6997655689063055</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6923117629307463</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>70.42111090926392</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7297016957153877</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7042111090926392</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6956381714197672</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>83.99475774011886</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4522810810400794</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8399475774011886</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8316447310824294</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>75.17011392832117</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9718872793329257</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7517011392832118</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7318499796034551</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>73.98974039567815</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6538319306448102</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7398974039567816</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7272179826755762</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>87.79574217770049</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.332225500823309</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.877957421777005</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8772901728790217</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>87.82264552461527</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2692949200204263</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8782264552461527</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8744010623188785</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>92.95556189932439</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2011364175239578</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9295556189932439</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9259058770567737</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>78.98669250310701</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5642041075395213</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7898669250310701</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.783232265206103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>79.76522288255089</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5322525723992537</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7976522288255088</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7967877994433729</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>73.55971937473507</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6162943077584109</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7355971937473507</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7232733985791653</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>86.34339397399631</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3723015020601451</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8634339397399632</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8632190816597018</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>74.45912161869913</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6115598625193039</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7445912161869912</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7373936728152486</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>71.44906097803614</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7295186700250876</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7144906097803614</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.712550478620393</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>87.37964861287728</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3292213460275283</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8737964861287727</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8691743075690626</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>75.26129118764003</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7084300205421944</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7526129118764003</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7429038845788331</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>76.25610948191594</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.573307308073466</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7625610948191593</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7599000052795454</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>74.07304561458145</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7390725102896492</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7407304561458143</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7263695806549013</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>84.69441777178004</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.387710604754587</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8469441777178004</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.846277169071182</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>71.84863190858053</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8882400577072985</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7184863190858052</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7094647603377355</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>70.34368809418767</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7382293208541039</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7034368809418766</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7034833716068822</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>89.26928433636969</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.3015258773850898</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.892692843363697</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8912027108816032</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>84.29303021652437</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.373113182776918</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8429303021652437</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8431701739996592</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>92.69111324492425</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2167379198455213</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9269111324492426</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9241406623087161</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>79.44578528649325</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5411676708679037</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7944578528649324</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7899540704937335</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>83.35426777048244</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4761053043262412</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8335426777048245</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8300088752668465</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>83.07788129655101</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4610815444611944</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8307788129655101</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8270745021723848</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>89.41297070043859</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3082383451983333</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8941297070043859</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8886954665029692</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>80.38962274760163</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5423781980760396</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8038962274760163</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7970084380429743</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>78.97083884808691</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4982099857588764</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7897083884808692</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7872223032701844</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>86.19486327736399</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4181020426990775</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.86194863277364</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8580179852689639</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>86.57920916270902</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4180903412401676</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8657920916270901</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8580081435096296</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>87.16814159292036</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3374828873667866</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8716814159292035</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8677500598805361</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>80.66367356118998</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5413846566031377</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8066367356118997</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8021498167224512</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>88.70431405115961</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3936082634609193</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8870431405115962</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8696646464363363</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>79.2330383480826</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6115609649103135</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.792330383480826</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7871709920667255</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>76.2311092656511</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7261515715469916</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7623110926565109</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7476273217745333</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>94.54277286135694</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1472184532894365</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9454277286135693</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.945189604502936</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>94.66180503291551</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1757599024878194</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.946618050329155</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9467483662847702</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>91.74508430003719</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3194536189626281</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9174508430003719</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9131858093547521</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>85.39530618776979</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4249884053591976</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8539530618776979</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8483681554037996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>67.83268021349666</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7446277506649495</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6783268021349665</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6772449268027421</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>65.53949428628275</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8959814734756947</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6553949428628275</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6350489001366307</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>78.54064481526657</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5754777065323045</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7854064481526657</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7777509187554839</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>58.12532980389104</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.95500534226497</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5812532980389103</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5752679185550947</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>63.3599771624322</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9089572813361884</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.633599771624322</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6153933432195927</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>63.56456370729851</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8903195708990097</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.635645637072985</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6302247377983046</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>64.24839315218989</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8193622176845869</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.642483931521899</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6339827735644974</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>65.60619036496855</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.822066979110241</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6560619036496855</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6423586773385821</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>54.87703180823363</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.07890399992466</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5487703180823363</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5194321844380413</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>74.48213219837541</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7074543500940005</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7448213219837542</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7458425754470338</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>62.59907092621908</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8835173727323612</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6259907092621908</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6090290439669925</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>62.09534684556095</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8326233884940544</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6209534684556095</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6056391043475103</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>70.33365340530628</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7630747695763905</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7033365340530627</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6975021818024326</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>85.54866391577782</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3440970394255904</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8554866391577782</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8549620003930511</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>84.31993356343914</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3997257597123584</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8431993356343913</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8374156063841067</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>68.07154041124925</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.774746333461824</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6807154041124924</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6704729928633398</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>78.21079767126012</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6018651107326149</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7821079767126013</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7785450361586317</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>77.45335167259233</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5897824920713901</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7745335167259233</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7674153453021005</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>85.7523854012578</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3471944545318062</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8575238540125779</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.85834258134471</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>71.19776122630819</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7044201066096625</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7119776122630819</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7150815209510017</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>77.20283047431205</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5961474109673872</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7720283047431206</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7658113728755604</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>85.70048183807819</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3730923286639154</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8570048183807819</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.853160644538662</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>77.68795577816417</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5919234481329719</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7768795577816417</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7697178963202869</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>75.28629140390487</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6494771969194214</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7528629140390488</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7469776349902656</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>75.92989558733207</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5921951660265525</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7592989558733206</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7543380456215786</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>83.47105078763657</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4420357360815009</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8347105078763658</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8297034801847358</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>77.44591216186991</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.677532890283813</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7744591216186991</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7657548134635992</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>68.76391664287753</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7960161038984855</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6876391664287753</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6801989917908041</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>90.50147492625368</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2917604831745848</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9050147492625369</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9047804036559299</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>85.39001202432547</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3692416361222665</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8539001202432548</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8513267372589493</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>89.39073867420998</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3161349307565009</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8939073867420998</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8885080965834575</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>79.95899041802554</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5292546329981916</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7995899041802553</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7953108400693516</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>86.16571077604478</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3832803633296862</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8616571077604478</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.860436143735549</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>76.86666839678544</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6791386334691196</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7686666839678544</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7582161572389532</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>91.74041297935104</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.230286893780188</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9174041297935103</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9175198641962092</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>72.65339665568041</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.730713081608216</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7265339665568041</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7145988194421775</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>77.46693310495766</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5717102136773368</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7746693310495766</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.769584784181106</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>84.248133634374</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4329780622075002</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.84248133634374</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8415003020450722</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>74.85125303852109</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6774748645645257</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7485125303852109</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7356282562094956</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>78.12835751174319</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5594627812504769</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7812835751174318</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7760465166376385</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>73.78688396958452</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7043144597982367</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7378688396958452</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7251284185911062</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>80.01782022335833</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5072098788300839</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8001782022335833</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7980194465535385</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>75.81683232553914</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8756671145092696</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7581683232553915</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7455312526818114</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>71.61004852983157</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7621648739363688</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7161004852983157</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7009927175883017</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>88.21737212259622</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.3611457532271743</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8821737212259622</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8824013681384113</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>93.31196636649106</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1616393864312461</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9331196636649107</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9322864326872835</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>89.2330383480826</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3284612909890711</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8923303834808258</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.885915566814016</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>80.94098853219607</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5310431767739</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8094098853219607</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8029204031160446</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>55.75645118037353</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9653139630953472</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5575645118037353</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.550427679413371</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>50.81159871625187</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9408799568812052</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5081159871625187</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4903049934384143</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>60.74273998910026</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8652456104755402</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6074273998910026</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6041766204102021</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>47.66061990155625</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.053365345795949</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4766061990155624</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4671382164311276</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>62.97372814643725</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8726889749368032</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6297372814643725</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6204414332358434</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>68.90829505445549</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7193761746088664</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6890829505445548</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6832701201874311</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>52.71914116904126</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.11087467422088</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5271914116904125</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5168378511791393</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>56.2258324033945</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.014860315124194</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5622583240339449</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5492179281534948</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>53.87217882507635</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.033261067668597</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5387217882507633</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5361236744329498</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>64.72140762463343</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8359808305899301</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6472140762463343</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6467249549770189</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>57.61035995121065</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9471532066663106</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5761035995121065</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5698431872786472</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>56.87877922819401</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9534706900517145</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5687877922819402</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5565048743067968</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>82.04872014463793</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4491728908692798</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8204872014463792</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.819046052949418</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>79.9555359475428</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.500418413678805</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.799555359475428</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7987662783984865</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>83.27096255157917</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3998555920707683</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8327096255157918</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8317181826362949</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>62.27709005556565</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8441278471156127</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6227709005556564</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6160361364952425</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>69.98192025882577</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7272597640752793</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6998192025882577</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6974847127123603</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>68.0288756823156</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7581478968262673</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6802887568231559</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6738964152313744</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>62.27303004351248</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8185381770133973</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6227303004351249</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6221495790943782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>59.73615688717031</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9588359527289867</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5973615688717031</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5891895764389653</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>56.67021341015061</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9506270805994669</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.566702134101506</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5638760329844439</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>67.01537210529503</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8401114424069723</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6701537210529502</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6573779185166655</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>60.17846175139923</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9445148706436157</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6017846175139924</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5984888854955615</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>48.74445280668517</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.111688574155172</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4874445280668517</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4799648105684534</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>57.76113980224743</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.095724085966746</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5776113980224743</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5630643901956172</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>75.39329924999352</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6194553636635343</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7539329924999352</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7493326437951178</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>65.35774530921547</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9389187549551329</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6535774530921549</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.639441975290145</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>52.6044342944143</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.08549308180809</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5260443429441432</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5075546512812841</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>81.2134188012007</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5230645856509606</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.812134188012007</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8097255788440203</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>82.83843285841573</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4021913426617781</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8283843285841573</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8257900101131904</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>75.81691883147778</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.6194572379191716</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7581691883147779</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.758115510833165</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>65.57425813948794</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8262685474049714</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6557425813948794</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.649030179426316</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>67.65551605117692</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7919610659281413</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6765551605117691</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6684766978543992</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>66.61467659754842</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8076814100146293</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6661467659754843</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6542620964448328</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>60.772238514174</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8582314689954122</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6077223851417399</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6033115651683114</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>60.67716848761668</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8615253776311874</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6067716848761667</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6056496734845511</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>54.72140762463344</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.03431838452816</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5472140762463343</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5371242947048567</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>66.07107327918061</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7680985609690348</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6607107327918061</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6609607883598935</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>57.37921608318411</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9499306251605353</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.573792160831841</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5649401916720325</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>49.48191593352884</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.097479619582494</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4948191593352884</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4798862864307362</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>56.01726658535108</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.033509450157484</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5601726658535109</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5521193440924204</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>73.06291576916756</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6363293705508113</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7306291576916755</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7249858703785861</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>64.53265166653691</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9271437202890714</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6453265166653691</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6344630689348764</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>52.21628214776945</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.051371919115385</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5221628214776944</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5139141766964</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>78.53441638768501</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5745166697849829</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7853441638768501</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7828804583914044</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>81.07717194785423</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4076241408629964</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8107717194785422</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8091649478199725</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>75.9971972075883</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5920798805852731</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7599719720758831</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7574185779711609</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>64.32074095219971</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8261201109437065</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.643207409521997</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6366372025602955</v>
       </c>
     </row>
   </sheetData>
@@ -14110,6 +20081,1406 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>69.3674685767178</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7575513526797295</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6936746857671779</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6940581073271396</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>70.41220079758475</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6991460099816322</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7041220079758476</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7007856966691112</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>68.34436284050899</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.762944541623195</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.68344362840509</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6753776952322863</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>67.98813138521959</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7588318167875211</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.679881313852196</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6758935178712794</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>63.70288670317217</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8492282470067343</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6370288670317217</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6320773538883616</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>61.11237986487772</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8509958753983179</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6111237986487772</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6107776139099117</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>65.50246974454797</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8178042193253836</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6550246974454796</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6485915356616159</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>57.99072656337857</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9709309575458368</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5799072656337858</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5708265922073262</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>60.67180511942145</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.877262364824613</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6067180511942144</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6071449842246862</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>64.97807074455662</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8165536170204482</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6497807074455662</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6413827379544037</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>63.23160234950129</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9222186212738356</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6323160234950129</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6312716679450474</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>59.39973529182778</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9355417122443518</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5939973529182778</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5947198365263049</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>87.64530835041826</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.3187905133701861</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8764530835041825</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8759456058301248</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>84.23213003572695</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3917306597034136</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8423213003572695</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8426214177039952</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>80.00968866512686</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.4968566382924716</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8000968866512685</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7944624160930526</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>68.30593113550579</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.748425809805178</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6830593113550577</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6797291186029765</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>49.55112068443499</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.077566017707189</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4955112068443498</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.4751974594428259</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>56.87419441344648</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9127303948005041</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5687419441344648</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5479402994700913</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>55.17928355781625</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9591690589984259</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5517928355781624</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5499668069433177</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>51.17942196731806</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.009686603148778</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5117942196731805</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5049390736587324</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>52.96412598724903</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.106944766640663</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5296412598724902</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5054080012593405</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>51.70191783665948</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.031217965483666</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5170191783665949</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5051435346654773</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>39.67707333108417</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.217214687665303</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3967707333108418</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.3801908517421166</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>42.59500514710335</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.162701008717219</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4259500514710335</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4001106160351278</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>47.28163738440644</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.035791270931562</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4728163738440644</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4660981932599919</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>55.92072595783701</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9645542114973068</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.55920725957837</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5437067586363009</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>49.70605282052612</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.097404903173447</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4970605282052613</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.4745383250290455</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>44.16448239171619</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.111096481482188</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4416448239171619</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.3883922827936334</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>58.98961063677022</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8999304423729578</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.5898961063677022</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5718521905660927</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>76.13283851936436</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4898490233657261</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7613283851936435</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7535951228923089</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>78.35162933935415</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5469073022405306</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7835162933935415</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7774419059186418</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>54.01794133167243</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9748509425483642</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5401794133167243</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5229680948208696</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>70.86912516544261</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7048589130242665</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7086912516544261</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7044359623074771</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>65.61138072128651</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8236558273434639</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6561138072128652</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6434466197125964</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>62.59370755802386</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8524395813544592</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6259370755802386</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6184747325957549</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>62.91317398939437</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9076475133498511</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6291317398939438</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6238985593370845</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>59.67439164698656</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9943157528837523</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5967439164698656</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5845197025223626</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>66.51268609590048</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7972660889228185</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6651268609590049</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6599354370280547</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>59.02992240417304</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9258942951758702</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5902992240417305</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5798423448261703</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>47.38406041574754</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.157275222738584</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4738406041574754</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4634675700592846</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>58.8130520160209</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.062532092134158</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5881305201602089</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5672499036803529</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>78.33380911599582</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5117592205603918</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7833380911599581</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7820333946027057</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>68.65760084429796</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8086485010882219</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6865760084429796</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6818960146485078</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>54.48438135277987</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.023217397928238</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5448438135277986</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5362280833294901</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>77.53060147579131</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6195349181691806</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7753060147579131</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7688110818606612</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>79.39887023244145</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4813980558421463</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7939887023244145</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7828240152500745</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>76.76640801391015</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5935871946314971</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7676640801391016</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7643930070624056</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>65.9048780698795</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8176020383431267</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6590487806987949</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6507637619215322</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>66.15230235555671</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.867744566872716</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.661523023555567</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6598103026081801</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>65.47028953537661</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7689487179120381</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.654702895353766</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6467524217992235</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>71.64214223306431</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6536810482541721</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.716421422330643</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7047375861266089</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>51.72190070848363</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.067108728488286</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5172190070848364</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5022851122298154</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>54.90601129767558</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.012182256579399</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5490601129767558</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5307729748440757</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>60.18071090580369</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.920862110455831</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6018071090580369</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5997556619551263</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>60.28322044308342</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9029566633825501</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6028322044308342</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5871086255968873</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>59.53745274613102</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.917471401890119</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5953745274613101</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5843342310158363</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>52.40970942655214</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.085059241453807</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5240970942655213</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5118695977210159</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>68.44479623526155</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7558341174076001</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6844479623526155</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6801284372546067</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>66.54893208418757</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8204825604955355</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6654893208418757</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6506856247772027</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>58.91936781460047</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8868454823891321</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5891936781460048</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.578627082960262</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>78.15353073988528</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5780463012556235</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7815353073988529</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7786018998173106</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>77.13751849064438</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.461011379918394</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7713751849064439</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7681004661613413</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>78.86218738916426</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5329029080768426</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7886218738916426</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.782284894733693</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>64.69133816036471</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8154091656554699</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6469133816036471</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6377236613067456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
